--- a/medicine/Psychotrope/Costières/Costières.xlsx
+++ b/medicine/Psychotrope/Costières/Costières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Costi%C3%A8res</t>
+          <t>Costières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Costières, de l'occitan coustiera, sont une région naturelle française située dans le département du Gard.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Costi%C3%A8res</t>
+          <t>Costières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Situation
-Depuis la mer Méditerranée, les Costières constituent la première forme de relief rencontrée dans le département du Gard. Seule la Petite Camargue, région naturelle au relief tout à fait plat, sépare ces deux entités géographiques. De fait, les hauteurs toutes relatives du plateau des Costières permettent à l'œil nu un large panorama sur la région alentour : au nord, l'agglomération nîmoise surplombe la plaine agricole de la Vistrenque. L'horizon laisse entrevoir les massifs des Cévennes et des Préalpes. Au sud s'étendent la plaine camarguaise et le littoral. Le mont Ventoux et le pic Saint-Loup, situés respectivement dans les départements du Vaucluse et de l'Hérault, constituent pour leur part deux repères géographiques majeurs à l'est et à l'ouest.
-Communes concernées
-Quelques-unes des 24 communes des Costières :
+          <t>Situation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis la mer Méditerranée, les Costières constituent la première forme de relief rencontrée dans le département du Gard. Seule la Petite Camargue, région naturelle au relief tout à fait plat, sépare ces deux entités géographiques. De fait, les hauteurs toutes relatives du plateau des Costières permettent à l'œil nu un large panorama sur la région alentour : au nord, l'agglomération nîmoise surplombe la plaine agricole de la Vistrenque. L'horizon laisse entrevoir les massifs des Cévennes et des Préalpes. Au sud s'étendent la plaine camarguaise et le littoral. Le mont Ventoux et le pic Saint-Loup, situés respectivement dans les départements du Vaucluse et de l'Hérault, constituent pour leur part deux repères géographiques majeurs à l'est et à l'ouest.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Costières</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Costi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Communes concernées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Quelques-unes des 24 communes des Costières :
 Nîmes
 Aubord
 Beaucaire
@@ -533,45 +585,7 @@
 Redessan
 Rodilhan
 Saint-Gilles
-Vauvert
-Géologie
-La région des Costières est constituée d’un terrain du Tertiaire supérieur - Pliocène - formé de sables, de galets passant souvent au poudingue (appelé localement taparas), et de marnes généralement bleuâtres. Cette dernière formation est elle-même recouverte, sur une assez grande partie par des galets provenant de débâcles glaciaires, soit avec une origine rhodanienne, soit avec une origine durancienne. Ces galets, appelés localement gress lorsqu'ils sont libres ou taparas lorsqu'ils sont cimentés entre eux[1], caractérisent le plateau des Costières.
-On trouve également dans ces sols un lit d'argile rouge appelé localement gapan, parfois situé en surface mais le plus souvent en profondeur.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Costi%C3%A8res</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Costi%C3%A8res</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Milieu naturel</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flore
-La végétation naturelle rencontrée en Costières s'apparente à celle des garrigues : pin parasol, chêne vert, chêne kermès, amandier, genêt, genevrier cade, ciste, thym... De vastes zones boisées recouvrent notamment les puechs des communes de Générac, Beauvoisin et Vauvert.
-Faune
-La faune des Costières est quant à elle adaptée à un milieu naturel souvent sec, soumis à une forte chaleur estivale et parsemé d'une végétation de type maquis.
-</t>
+Vauvert</t>
         </is>
       </c>
     </row>
@@ -581,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Costi%C3%A8res</t>
+          <t>Costières</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,12 +610,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Toponymie</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le pluriel est le plus souvent employé pour désigner ce terroir, mais le débat est encore ouvert. Une quête d'identité singulière a notamment été menée dans le journal local L'Air des Costières. Notons cependant que d'un point de vue géologique il s'agit bien du terme de Costière qui est utilisé tout comme en géographie ancienne ; le pluriel paraît être une forme relativement moderne mais non dénuée de sens, car reflétant de façon pertinente la diversité des sols rencontrés dans cette région (galets, argile, terrains sablonneux...)
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région des Costières est constituée d’un terrain du Tertiaire supérieur - Pliocène - formé de sables, de galets passant souvent au poudingue (appelé localement taparas), et de marnes généralement bleuâtres. Cette dernière formation est elle-même recouverte, sur une assez grande partie par des galets provenant de débâcles glaciaires, soit avec une origine rhodanienne, soit avec une origine durancienne. Ces galets, appelés localement gress lorsqu'ils sont libres ou taparas lorsqu'ils sont cimentés entre eux, caractérisent le plateau des Costières.
+On trouve également dans ces sols un lit d'argile rouge appelé localement gapan, parfois situé en surface mais le plus souvent en profondeur.
 </t>
         </is>
       </c>
@@ -612,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Costi%C3%A8res</t>
+          <t>Costières</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,15 +648,127 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Milieu naturel</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La végétation naturelle rencontrée en Costières s'apparente à celle des garrigues : pin parasol, chêne vert, chêne kermès, amandier, genêt, genevrier cade, ciste, thym... De vastes zones boisées recouvrent notamment les puechs des communes de Générac, Beauvoisin et Vauvert.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Costières</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Costi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Milieu naturel</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La faune des Costières est quant à elle adaptée à un milieu naturel souvent sec, soumis à une forte chaleur estivale et parsemé d'une végétation de type maquis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Costières</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Costi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Toponymie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pluriel est le plus souvent employé pour désigner ce terroir, mais le débat est encore ouvert. Une quête d'identité singulière a notamment été menée dans le journal local L'Air des Costières. Notons cependant que d'un point de vue géologique il s'agit bien du terme de Costière qui est utilisé tout comme en géographie ancienne ; le pluriel paraît être une forme relativement moderne mais non dénuée de sens, car reflétant de façon pertinente la diversité des sols rencontrés dans cette région (galets, argile, terrains sablonneux...)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Costières</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Costi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Activité économique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Viticulture
-Les vins des Costières de Nîmes n’ont intégré le rang de vin AOC qu’en 1986. Toutefois ces vins étaient réputés dès le Moyen Âge. L'un de leurs secrets de fabrique est le sol caillouteux sur lequel pousse cette vigne.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Viticulture</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins des Costières de Nîmes n’ont intégré le rang de vin AOC qu’en 1986. Toutefois ces vins étaient réputés dès le Moyen Âge. L'un de leurs secrets de fabrique est le sol caillouteux sur lequel pousse cette vigne.
 Difficile de ne pas se tromper, mais cette appellation appartient bien au vignoble de la Vallée du Rhône et non pas à la région Languedoc. Elle produit principalement des vins rouges mais la demande en rosé ne cesse d’augmenter.
-Arboriculture fruitière</t>
+</t>
         </is>
       </c>
     </row>
